--- a/src/test/resources/TestData/DsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/DsAlgo_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7763D7E3-2CC4-491A-8D3D-F17BC935B1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{324A1C77-84B9-4B64-A6FD-42E34FBDF429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid_Login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Array" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E18"/>
+  <oleSize ref="A1:J11"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="2RqX7NmqtzoDWSFeiwngA9pRnP1hB2Vhhj4HR5Y8uCc="/>
@@ -1896,7 +1896,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7490,7 +7490,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/src/test/resources/TestData/DsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/DsAlgo_TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{324A1C77-84B9-4B64-A6FD-42E34FBDF429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8E85B12F-9E0C-4953-9584-5EBEC4BB57F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid_Login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Array" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J11"/>
+  <oleSize ref="A1:E18"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="2RqX7NmqtzoDWSFeiwngA9pRnP1hB2Vhhj4HR5Y8uCc="/>
@@ -1896,7 +1896,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7490,7 +7490,9 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/src/test/resources/TestData/DsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/DsAlgo_TestData.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8E85B12F-9E0C-4953-9584-5EBEC4BB57F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\DsAlgoTestNG\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82199B0D-B4EE-4126-B499-992CD479F6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid_Login" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,6 @@
     <sheet name="Array" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E18"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="2RqX7NmqtzoDWSFeiwngA9pRnP1hB2Vhhj4HR5Y8uCc="/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="97">
   <si>
     <t>username</t>
   </si>
@@ -261,9 +265,6 @@
 print(my_list</t>
   </si>
   <si>
-    <t>SyntaxError: EOF in multi-line statement on line 4</t>
-  </si>
-  <si>
     <t>fruits = ["apple", "banana", "cherry", "date"]
 fruits.remove("banana")
 print(fruits)</t>
@@ -313,28 +314,6 @@
   </si>
   <si>
     <t>Some Tests failed. Please review code</t>
-  </si>
-  <si>
-    <t>def search(input_list, num): 
-if(num in input_list):
-print("Element Found")
-\b
-\b
-else:
-print("Not Found")
-\b
-\b
-\b
-\b
-search([12, 23, 45, 67, 6, 90] , 25)</t>
-  </si>
-  <si>
-    <t>Not Found</t>
-  </si>
-  <si>
-    <t>def search(lst, value):
-  return value in lst
- print(search([12, 23, 45, 67, 6, 90], 12)) #</t>
   </si>
   <si>
     <t>def search(input_list, num): 
@@ -428,17 +407,6 @@
     <t>SyntaxError: bad input on line 3</t>
   </si>
   <si>
-    <t xml:space="preserve">def sortedSquares(nums):
-\b
-\b
-\b
-\b
-return sorted(x**2 for x in nums)
-nums = [-4, -1, 0, 3, 10]
-result = sortedSquares(nums)
-print(result) </t>
-  </si>
-  <si>
     <t>[0, 1, 9, 16, 100]</t>
   </si>
   <si>
@@ -466,12 +434,29 @@
 result = sortedSquares(nums)
 print(result) # Output: [0, 1, 9, 16, 100]</t>
   </si>
+  <si>
+    <t>SyntaxError: EOF in multi-line statement on line 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def sortedSquares(nums):
+return sorted(x**2 for x in nums)
+nums = [-4, -1, 0, 3, 10]
+result = sortedSquares(nums)
+print(result) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">def sortedSquares(nums):
+  return sorted(x**2 for x in nums)
+nums = [-4, -1, 0, 3, 10]
+result = sortedSquares(nums)
+print(result) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -559,6 +544,18 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -595,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -640,6 +637,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7490,7 +7493,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -8569,9 +8572,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -8622,176 +8627,158 @@
         <v>69</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3" ht="46.5" customHeight="1">
       <c r="A6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:3" ht="58.5" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3" ht="71.25" customHeight="1">
       <c r="A8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" ht="63" customHeight="1">
       <c r="A9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" ht="156.75" customHeight="1">
       <c r="A10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:3" ht="156.75" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:3" ht="162" customHeight="1">
       <c r="A12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:3" ht="259.5" customHeight="1">
+      <c r="A13" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>83</v>
       </c>
+      <c r="C13" s="22"/>
     </row>
-    <row r="13" spans="1:3" ht="162" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="162" customHeight="1">
+    <row r="14" spans="1:3" ht="259.5" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C14" s="22"/>
     </row>
-    <row r="15" spans="1:3" ht="259.5" customHeight="1">
+    <row r="15" spans="1:3" ht="256.5" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="C15" s="22"/>
     </row>
-    <row r="16" spans="1:3" ht="259.5" customHeight="1">
+    <row r="16" spans="1:3" ht="112.5" customHeight="1">
       <c r="A16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>80</v>
+      <c r="B16" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C16" s="22"/>
     </row>
-    <row r="17" spans="1:3" ht="256.5" customHeight="1">
+    <row r="17" spans="1:3" ht="112.5" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" s="22"/>
     </row>
-    <row r="18" spans="1:3" ht="112.5" customHeight="1">
+    <row r="18" spans="1:3" ht="103.5" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="23">
-        <v>2</v>
+        <v>88</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="C18" s="22"/>
     </row>
-    <row r="19" spans="1:3" ht="112.5" customHeight="1">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:3" ht="138" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="C19" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="118.5" customHeight="1">
+      <c r="A20" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="22"/>
-    </row>
-    <row r="20" spans="1:3" ht="103.5" customHeight="1">
-      <c r="A20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="C20" s="22"/>
     </row>
-    <row r="21" spans="1:3" ht="138" customHeight="1">
+    <row r="21" spans="1:3" ht="127.5" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C21" s="22"/>
     </row>
-    <row r="22" spans="1:3" ht="118.5" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="22"/>
-    </row>
-    <row r="23" spans="1:3" ht="127.5" customHeight="1">
-      <c r="A23" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="22"/>
-    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
@@ -9767,10 +9754,8 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/DsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/DsAlgo_TestData.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8E85B12F-9E0C-4953-9584-5EBEC4BB57F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Valid_Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Register" sheetId="3" r:id="rId3"/>
-    <sheet name="Linked_List" sheetId="4" r:id="rId4"/>
-    <sheet name="Graph" sheetId="5" r:id="rId5"/>
-    <sheet name="Tree" sheetId="6" r:id="rId6"/>
-    <sheet name="TryEditor" sheetId="7" r:id="rId7"/>
-    <sheet name="Array" sheetId="8" r:id="rId8"/>
+    <sheet state="visible" name="Valid_Login" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Login" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Register" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Linked_List" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Graph" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Tree" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="TryEditor" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Array" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:E18"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="2RqX7NmqtzoDWSFeiwngA9pRnP1hB2Vhhj4HR5Y8uCc="/>
@@ -141,18 +136,18 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t>OutPut Result</t>
     </r>
@@ -470,93 +465,82 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="14">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF467886"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF467886"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="13.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="13.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -565,17 +549,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -589,78 +567,101 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="23">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -850,26 +851,21 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="6" width="12.6328125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -885,20 +881,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="3" ht="15.75" customHeight="1"/>
+    <row r="4" ht="15.75" customHeight="1"/>
+    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1884,26 +1880,25 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="6" width="12.6328125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1911,17 +1906,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1929,7 +1924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1937,17 +1932,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2933,31 +2928,31 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" customWidth="1"/>
-    <col min="5" max="5" width="50.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="18.5"/>
+    <col customWidth="1" min="3" max="3" width="19.13"/>
+    <col customWidth="1" min="4" max="4" width="34.88"/>
+    <col customWidth="1" min="5" max="5" width="50.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2974,7 +2969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2985,9 +2980,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>8767686667</v>
+        <v>8.767686667E9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -2996,7 +2991,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3009,7 +3004,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3021,7 +3016,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3041,7 +3036,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -3061,7 +3056,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -3078,7 +3073,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -3096,7 +3091,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -3115,15 +3110,15 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="8">
-        <v>987654321</v>
+        <v>9.87654321E8</v>
       </c>
       <c r="C11" s="8">
-        <v>987654321</v>
+        <v>9.87654321E8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
@@ -3135,7 +3130,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -3155,7 +3150,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3172,7 +3167,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -3190,7 +3185,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3207,47 +3202,47 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="F16" s="4"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="6:8" ht="15.75" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="6:8" ht="15.75" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="F18" s="1"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="6:8" ht="15.75" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="F19" s="4"/>
       <c r="G19" s="1"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="6:8" ht="15.75" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="F20" s="4"/>
       <c r="G20" s="6"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="6:8" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="23" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="24" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="25" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="26" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="27" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="28" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="29" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="30" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="31" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="32" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4217,28 +4212,29 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" customWidth="1"/>
-    <col min="3" max="6" width="12.6328125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="13.88"/>
+    <col customWidth="1" min="2" max="2" width="16.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
@@ -4250,7 +4246,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="30.75" customHeight="1">
+    <row r="2" ht="30.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
@@ -4261,62 +4257,62 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:6" ht="24.75" customHeight="1">
+    <row r="3" ht="24.75" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5302,28 +5298,29 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.26953125" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="6" width="12.6328125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="43.25"/>
+    <col customWidth="1" min="2" max="2" width="40.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
@@ -5331,7 +5328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1">
+    <row r="2" ht="17.25" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
@@ -5340,7 +5337,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
@@ -5351,16 +5348,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="16">
-        <v>123434</v>
+        <v>123434.0</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
@@ -5371,7 +5368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -5382,7 +5379,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -5393,18 +5390,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -6390,28 +6387,29 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.26953125" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="6" width="12.6328125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="43.25"/>
+    <col customWidth="1" min="2" max="2" width="40.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
@@ -6419,7 +6417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1">
+    <row r="2" ht="17.25" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
@@ -6428,7 +6426,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
@@ -6439,16 +6437,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="16">
-        <v>123434</v>
+        <v>123434.0</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
@@ -6459,7 +6457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -6470,7 +6468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -6481,18 +6479,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -7478,30 +7476,29 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.453125" customWidth="1"/>
-    <col min="2" max="2" width="41.08984375" customWidth="1"/>
-    <col min="3" max="6" width="12.6328125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="48.5"/>
+    <col customWidth="1" min="2" max="2" width="41.13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -7509,7 +7506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -7517,7 +7514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="36" customHeight="1">
+    <row r="3" ht="36.0" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -7525,7 +7522,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" customHeight="1">
+    <row r="4" ht="27.0" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -7533,47 +7530,47 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A5" s="17" t="s">
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A6" s="17" t="s">
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A7" s="17" t="s">
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="17">
+        <v>1234567.0</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A9" s="18">
-        <v>1234567</v>
-      </c>
-      <c r="B9" s="17"/>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -8559,248 +8556,249 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="70.08984375" customWidth="1"/>
-    <col min="2" max="2" width="43.90625" customWidth="1"/>
-    <col min="3" max="3" width="41.7265625" customWidth="1"/>
-    <col min="4" max="6" width="12.6328125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="70.13"/>
+    <col customWidth="1" min="2" max="2" width="43.88"/>
+    <col customWidth="1" min="3" max="3" width="41.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="19" t="s">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3" ht="49.5" customHeight="1">
-      <c r="A4" s="21" t="s">
+    <row r="4" ht="49.5" customHeight="1">
+      <c r="A4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="21"/>
     </row>
-    <row r="5" spans="1:3" ht="52.5" customHeight="1">
-      <c r="A5" s="21" t="s">
+    <row r="5" ht="52.5" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="21"/>
     </row>
-    <row r="6" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A6" s="21" t="s">
+    <row r="6" ht="46.5" customHeight="1">
+      <c r="A6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="21"/>
     </row>
-    <row r="7" spans="1:3" ht="58.5" customHeight="1">
-      <c r="A7" s="21" t="s">
+    <row r="7" ht="58.5" customHeight="1">
+      <c r="A7" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="21"/>
     </row>
-    <row r="8" spans="1:3" ht="71.25" customHeight="1">
-      <c r="A8" s="21" t="s">
+    <row r="8" ht="71.25" customHeight="1">
+      <c r="A8" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="21"/>
     </row>
-    <row r="9" spans="1:3" ht="63" customHeight="1">
-      <c r="A9" s="21" t="s">
+    <row r="9" ht="63.0" customHeight="1">
+      <c r="A9" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:3" ht="156.75" customHeight="1">
-      <c r="A10" s="21" t="s">
+    <row r="10" ht="156.75" customHeight="1">
+      <c r="A10" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:3" ht="156.75" customHeight="1">
-      <c r="A11" s="21" t="s">
+    <row r="11" ht="156.75" customHeight="1">
+      <c r="A11" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="21"/>
     </row>
-    <row r="12" spans="1:3" ht="162" customHeight="1">
-      <c r="A12" s="21" t="s">
+    <row r="12" ht="162.0" customHeight="1">
+      <c r="A12" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="162" customHeight="1">
-      <c r="A13" s="21" t="s">
+    <row r="13" ht="162.0" customHeight="1">
+      <c r="A13" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="162" customHeight="1">
-      <c r="A14" s="21" t="s">
+    <row r="14" ht="162.0" customHeight="1">
+      <c r="A14" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="21"/>
     </row>
-    <row r="15" spans="1:3" ht="259.5" customHeight="1">
-      <c r="A15" s="21" t="s">
+    <row r="15" ht="259.5" customHeight="1">
+      <c r="A15" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="21"/>
     </row>
-    <row r="16" spans="1:3" ht="259.5" customHeight="1">
-      <c r="A16" s="21" t="s">
+    <row r="16" ht="259.5" customHeight="1">
+      <c r="A16" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="21"/>
     </row>
-    <row r="17" spans="1:3" ht="256.5" customHeight="1">
-      <c r="A17" s="21" t="s">
+    <row r="17" ht="256.5" customHeight="1">
+      <c r="A17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="21"/>
     </row>
-    <row r="18" spans="1:3" ht="112.5" customHeight="1">
-      <c r="A18" s="21" t="s">
+    <row r="18" ht="112.5" customHeight="1">
+      <c r="A18" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="23">
-        <v>2</v>
-      </c>
-      <c r="C18" s="22"/>
+      <c r="B18" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="C18" s="21"/>
     </row>
-    <row r="19" spans="1:3" ht="112.5" customHeight="1">
-      <c r="A19" s="21" t="s">
+    <row r="19" ht="112.5" customHeight="1">
+      <c r="A19" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="21"/>
     </row>
-    <row r="20" spans="1:3" ht="103.5" customHeight="1">
-      <c r="A20" s="21" t="s">
+    <row r="20" ht="103.5" customHeight="1">
+      <c r="A20" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="21"/>
     </row>
-    <row r="21" spans="1:3" ht="138" customHeight="1">
-      <c r="A21" s="21" t="s">
+    <row r="21" ht="138.0" customHeight="1">
+      <c r="A21" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="21"/>
     </row>
-    <row r="22" spans="1:3" ht="118.5" customHeight="1">
-      <c r="A22" s="21" t="s">
+    <row r="22" ht="118.5" customHeight="1">
+      <c r="A22" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="21"/>
     </row>
-    <row r="23" spans="1:3" ht="127.5" customHeight="1">
-      <c r="A23" s="21" t="s">
+    <row r="23" ht="127.5" customHeight="1">
+      <c r="A23" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="21"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -9770,7 +9768,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/DsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/DsAlgo_TestData.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mousu\git\DsAlgoPortal-TestNG\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41E7D74-0F5D-43C2-9136-53C0CFA5FEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Valid_Login" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Login" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Register" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Linked_List" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Graph" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Tree" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="TryEditor" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Array" sheetId="8" r:id="rId11"/>
+    <sheet name="Valid_Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Register" sheetId="3" r:id="rId3"/>
+    <sheet name="Linked_List" sheetId="4" r:id="rId4"/>
+    <sheet name="Graph" sheetId="5" r:id="rId5"/>
+    <sheet name="Tree" sheetId="6" r:id="rId6"/>
+    <sheet name="TryEditor" sheetId="7" r:id="rId7"/>
+    <sheet name="Array" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="2RqX7NmqtzoDWSFeiwngA9pRnP1hB2Vhhj4HR5Y8uCc="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="110">
   <si>
     <t>username</t>
   </si>
@@ -136,18 +140,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>OutPut Result</t>
     </r>
@@ -254,9 +258,6 @@
     <t>my_list = [1, 2, 3]
 my_list.append(4)
 print(my_list</t>
-  </si>
-  <si>
-    <t>SyntaxError: EOF in multi-line statement on line 4</t>
   </si>
   <si>
     <t>fruits = ["apple", "banana", "cherry", "date"]
@@ -308,28 +309,6 @@
   </si>
   <si>
     <t>Some Tests failed. Please review code</t>
-  </si>
-  <si>
-    <t>def search(input_list, num): 
-if(num in input_list):
-print("Element Found")
-\b
-\b
-else:
-print("Not Found")
-\b
-\b
-\b
-\b
-search([12, 23, 45, 67, 6, 90] , 25)</t>
-  </si>
-  <si>
-    <t>Not Found</t>
-  </si>
-  <si>
-    <t>def search(lst, value):
-  return value in lst
- print(search([12, 23, 45, 67, 6, 90], 12)) #</t>
   </si>
   <si>
     <t>def search(input_list, num): 
@@ -423,17 +402,6 @@
     <t>SyntaxError: bad input on line 3</t>
   </si>
   <si>
-    <t xml:space="preserve">def sortedSquares(nums):
-\b
-\b
-\b
-\b
-return sorted(x**2 for x in nums)
-nums = [-4, -1, 0, 3, 10]
-result = sortedSquares(nums)
-print(result) </t>
-  </si>
-  <si>
     <t>[0, 1, 9, 16, 100]</t>
   </si>
   <si>
@@ -461,86 +429,143 @@
 result = sortedSquares(nums)
 print(result) # Output: [0, 1, 9, 16, 100]</t>
   </si>
+  <si>
+    <t>Arrays In Python</t>
+  </si>
+  <si>
+    <t>Arrays Using List</t>
+  </si>
+  <si>
+    <t>SyntaxError: EOF in multi-line statement on line 5</t>
+  </si>
+  <si>
+    <t>Basic Operations in Lists</t>
+  </si>
+  <si>
+    <t>Applications of Array</t>
+  </si>
+  <si>
+    <t>Search The Array</t>
+  </si>
+  <si>
+    <t>Max Consecutive Valid</t>
+  </si>
+  <si>
+    <t>Max Consecutive Submit</t>
+  </si>
+  <si>
+    <t>Max Consecutive Invalid</t>
+  </si>
+  <si>
+    <t>Find Num Valid</t>
+  </si>
+  <si>
+    <t>Find Num Submit</t>
+  </si>
+  <si>
+    <t>Find Num Invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def sortedSquares(nums): return sorted(x**2 for x in nums)
+nums = [-4, -1, 0, 3, 10]
+result = sortedSquares(nums)
+print(result) </t>
+  </si>
+  <si>
+    <t>Sorted Square Valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorted Square Submit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorted Square Invalid </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF467886"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF467886"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -549,11 +574,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -567,101 +598,87 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -851,21 +868,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -881,20 +900,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1880,25 +1899,23 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1906,17 +1923,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1924,7 +1941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1932,17 +1949,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2928,31 +2945,29 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.5"/>
-    <col customWidth="1" min="3" max="3" width="19.13"/>
-    <col customWidth="1" min="4" max="4" width="34.88"/>
-    <col customWidth="1" min="5" max="5" width="50.25"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" customWidth="1"/>
+    <col min="5" max="5" width="50.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2969,7 +2984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2980,9 +2995,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>8.767686667E9</v>
+        <v>8767686667</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -2991,7 +3006,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3004,7 +3019,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3016,7 +3031,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3036,7 +3051,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -3056,7 +3071,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -3073,7 +3088,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -3091,7 +3106,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -3110,15 +3125,15 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="8">
-        <v>9.87654321E8</v>
+        <v>987654321</v>
       </c>
       <c r="C11" s="8">
-        <v>9.87654321E8</v>
+        <v>987654321</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
@@ -3130,7 +3145,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -3150,7 +3165,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3167,7 +3182,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -3185,7 +3200,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3202,47 +3217,47 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="F16" s="4"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="6:8" ht="15.75" customHeight="1">
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="6:8" ht="15.75" customHeight="1">
       <c r="F18" s="1"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="6:8" ht="15.75" customHeight="1">
       <c r="F19" s="4"/>
       <c r="G19" s="1"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="6:8" ht="15.75" customHeight="1">
       <c r="F20" s="4"/>
       <c r="G20" s="6"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="6:8" ht="15.75" customHeight="1">
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="22" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="23" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="24" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="25" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="26" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="27" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="28" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="29" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="30" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="31" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="32" spans="6:8" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4212,29 +4227,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.88"/>
-    <col customWidth="1" min="2" max="2" width="16.38"/>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
@@ -4246,7 +4259,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" ht="30.75" customHeight="1">
+    <row r="2" spans="1:6" ht="30.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
@@ -4257,62 +4270,62 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" ht="24.75" customHeight="1">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5298,29 +5311,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.25"/>
-    <col customWidth="1" min="2" max="2" width="40.0"/>
+    <col min="1" max="1" width="43.26953125" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
@@ -5328,7 +5339,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
@@ -5337,7 +5348,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
@@ -5348,16 +5359,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="16">
-        <v>123434.0</v>
+        <v>123434</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
@@ -5368,7 +5379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -5379,7 +5390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -5390,18 +5401,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -6387,29 +6398,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.25"/>
-    <col customWidth="1" min="2" max="2" width="40.0"/>
+    <col min="1" max="1" width="43.26953125" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
@@ -6417,7 +6426,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
@@ -6426,7 +6435,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
@@ -6437,16 +6446,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="16">
-        <v>123434.0</v>
+        <v>123434</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
@@ -6457,7 +6466,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -6468,7 +6477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -6479,18 +6488,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -7476,29 +7485,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="48.5"/>
-    <col customWidth="1" min="2" max="2" width="41.13"/>
+    <col min="1" max="1" width="48.453125" customWidth="1"/>
+    <col min="2" max="2" width="41.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -7506,7 +7513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -7514,7 +7521,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" ht="36.0" customHeight="1">
+    <row r="3" spans="1:2" ht="36" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -7522,7 +7529,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" ht="27.0" customHeight="1">
+    <row r="4" spans="1:2" ht="27" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -7530,7 +7537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
@@ -7538,7 +7545,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -7546,7 +7553,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -7554,23 +7561,23 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="17">
-        <v>1234567.0</v>
+        <v>1234567</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -8556,249 +8563,277 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="70.13"/>
-    <col customWidth="1" min="2" max="2" width="43.88"/>
-    <col customWidth="1" min="3" max="3" width="41.75"/>
+    <col min="1" max="1" width="70.08984375" customWidth="1"/>
+    <col min="2" max="2" width="43.90625" customWidth="1"/>
+    <col min="3" max="3" width="41.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="22"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="22" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="22" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="4" ht="49.5" customHeight="1">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:3" ht="49.5" customHeight="1">
+      <c r="A4" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="24" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="5" ht="52.5" customHeight="1">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:3" ht="52.5" customHeight="1">
+      <c r="A5" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="46.5" customHeight="1">
+      <c r="A6" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="B6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="6" ht="46.5" customHeight="1">
-      <c r="A6" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="18" t="s">
+    <row r="7" spans="1:3" ht="58.5" customHeight="1">
+      <c r="A7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="B7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="7" ht="58.5" customHeight="1">
-      <c r="A7" s="20" t="s">
+    <row r="8" spans="1:3" ht="71.25" customHeight="1">
+      <c r="A8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="21"/>
+      <c r="B8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="8" ht="71.25" customHeight="1">
-      <c r="A8" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="18" t="s">
+    <row r="9" spans="1:3" ht="63" customHeight="1">
+      <c r="A9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="B9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="9" ht="63.0" customHeight="1">
-      <c r="A9" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="18" t="s">
+    <row r="10" spans="1:3" ht="156.75" customHeight="1">
+      <c r="A10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="B10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="10" ht="156.75" customHeight="1">
-      <c r="A10" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="18" t="s">
+    <row r="11" spans="1:3" ht="156.75" customHeight="1">
+      <c r="A11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C11" s="22" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="11" ht="156.75" customHeight="1">
-      <c r="A11" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="18" t="s">
+    <row r="12" spans="1:3" ht="162" customHeight="1">
+      <c r="A12" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="B12" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="12" ht="162.0" customHeight="1">
-      <c r="A12" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="18" t="s">
+    <row r="13" spans="1:3" ht="162" customHeight="1">
+      <c r="A13" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>83</v>
       </c>
+      <c r="C13" s="22" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="13" ht="162.0" customHeight="1">
-      <c r="A13" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="21" t="s">
+    <row r="14" spans="1:3" ht="162" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="259.5" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="259.5" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>83</v>
       </c>
+      <c r="C16" s="22" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="14" ht="162.0" customHeight="1">
-      <c r="A14" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="21"/>
+    <row r="17" spans="1:3" ht="256.5" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="15" ht="259.5" customHeight="1">
-      <c r="A15" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="21"/>
+    <row r="18" spans="1:3" ht="112.5" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="16" ht="259.5" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="21"/>
+    <row r="19" spans="1:3" ht="112.5" customHeight="1">
+      <c r="A19" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="17" ht="256.5" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="21"/>
+    <row r="20" spans="1:3" ht="103.5" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="18" ht="112.5" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="C18" s="21"/>
+    <row r="21" spans="1:3" ht="138" customHeight="1">
+      <c r="A21" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="19" ht="112.5" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="21"/>
+    <row r="22" spans="1:3" ht="118.5" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
     </row>
-    <row r="20" ht="103.5" customHeight="1">
-      <c r="A20" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="21"/>
+    <row r="23" spans="1:3" ht="127.5" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="20"/>
     </row>
-    <row r="21" ht="138.0" customHeight="1">
-      <c r="A21" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="21"/>
-    </row>
-    <row r="22" ht="118.5" customHeight="1">
-      <c r="A22" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="21"/>
-    </row>
-    <row r="23" ht="127.5" customHeight="1">
-      <c r="A23" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="21"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -9768,9 +9803,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/DsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/DsAlgo_TestData.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nampy-Ninja\Repository\DsAlgoPortal-TestNG\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6FBE19-0E21-4A3C-8BCF-FE0BBE52688D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Valid_Login" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Login" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Register" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Linked_List" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Graph" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Tree" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="TryEditor" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Array" sheetId="8" r:id="rId11"/>
+    <sheet name="Valid_Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Register" sheetId="3" r:id="rId3"/>
+    <sheet name="Linked_List" sheetId="4" r:id="rId4"/>
+    <sheet name="Graph" sheetId="5" r:id="rId5"/>
+    <sheet name="Tree" sheetId="6" r:id="rId6"/>
+    <sheet name="TryEditor" sheetId="7" r:id="rId7"/>
+    <sheet name="Array" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="2RqX7NmqtzoDWSFeiwngA9pRnP1hB2Vhhj4HR5Y8uCc="/>
@@ -136,18 +145,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>OutPut Result</t>
     </r>
@@ -465,82 +474,88 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF467886"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF467886"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -549,11 +564,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -567,101 +588,77 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -851,21 +848,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -881,20 +880,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1880,25 +1879,23 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1906,17 +1903,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1924,7 +1921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1932,17 +1929,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2928,31 +2925,29 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.5"/>
-    <col customWidth="1" min="3" max="3" width="19.13"/>
-    <col customWidth="1" min="4" max="4" width="34.88"/>
-    <col customWidth="1" min="5" max="5" width="50.25"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="50.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2969,7 +2964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2980,9 +2975,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>8.767686667E9</v>
+        <v>8767686667</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -2991,7 +2986,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3004,7 +2999,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3016,7 +3011,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3036,7 +3031,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -3056,7 +3051,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -3073,7 +3068,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -3091,7 +3086,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -3110,15 +3105,15 @@
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="8">
-        <v>9.87654321E8</v>
+        <v>987654321</v>
       </c>
       <c r="C11" s="8">
-        <v>9.87654321E8</v>
+        <v>987654321</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
@@ -3130,7 +3125,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -3150,7 +3145,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3167,7 +3162,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -3185,7 +3180,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3202,47 +3197,47 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="F16" s="4"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="6:8" ht="15.75" customHeight="1">
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="6:8" ht="15.75" customHeight="1">
       <c r="F18" s="1"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="6:8" ht="15.75" customHeight="1">
       <c r="F19" s="4"/>
       <c r="G19" s="1"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="6:8" ht="15.75" customHeight="1">
       <c r="F20" s="4"/>
       <c r="G20" s="6"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="6:8" ht="15.75" customHeight="1">
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="22" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="23" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="24" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="25" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="26" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="27" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="28" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="29" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="30" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="31" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="32" spans="6:8" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4212,29 +4207,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.88"/>
-    <col customWidth="1" min="2" max="2" width="16.38"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
@@ -4246,7 +4239,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" ht="30.75" customHeight="1">
+    <row r="2" spans="1:6" ht="30.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
@@ -4257,62 +4250,62 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" ht="24.75" customHeight="1">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5298,29 +5291,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.25"/>
-    <col customWidth="1" min="2" max="2" width="40.0"/>
+    <col min="1" max="1" width="43.21875" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
@@ -5328,7 +5319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
@@ -5337,7 +5328,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
@@ -5348,16 +5339,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="16">
-        <v>123434.0</v>
+        <v>123434</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
@@ -5368,7 +5359,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -5379,7 +5370,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -5390,18 +5381,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -6387,29 +6378,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.25"/>
-    <col customWidth="1" min="2" max="2" width="40.0"/>
+    <col min="1" max="1" width="43.21875" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
@@ -6417,7 +6406,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
@@ -6426,7 +6415,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
@@ -6437,16 +6426,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="16">
-        <v>123434.0</v>
+        <v>123434</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
@@ -6457,7 +6446,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -6468,7 +6457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -6479,18 +6468,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -7476,29 +7465,27 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="48.5"/>
-    <col customWidth="1" min="2" max="2" width="41.13"/>
+    <col min="1" max="1" width="48.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -7506,7 +7493,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -7514,7 +7501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" ht="36.0" customHeight="1">
+    <row r="3" spans="1:2" ht="36" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -7522,7 +7509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" ht="27.0" customHeight="1">
+    <row r="4" spans="1:2" ht="27" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -7530,7 +7517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
@@ -7538,7 +7525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -7546,7 +7533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -7554,23 +7541,23 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="17">
-        <v>1234567.0</v>
+        <v>1234567</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -8556,30 +8543,28 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="70.13"/>
-    <col customWidth="1" min="2" max="2" width="43.88"/>
-    <col customWidth="1" min="3" max="3" width="41.75"/>
+    <col min="1" max="1" width="70.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>63</v>
       </c>
@@ -8588,7 +8573,7 @@
       </c>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
@@ -8597,7 +8582,7 @@
       </c>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>41</v>
       </c>
@@ -8606,7 +8591,7 @@
       </c>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" ht="49.5" customHeight="1">
+    <row r="4" spans="1:3" ht="49.5" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>67</v>
       </c>
@@ -8615,7 +8600,7 @@
       </c>
       <c r="C4" s="21"/>
     </row>
-    <row r="5" ht="52.5" customHeight="1">
+    <row r="5" spans="1:3" ht="52.5" customHeight="1">
       <c r="A5" s="20" t="s">
         <v>69</v>
       </c>
@@ -8624,7 +8609,7 @@
       </c>
       <c r="C5" s="21"/>
     </row>
-    <row r="6" ht="46.5" customHeight="1">
+    <row r="6" spans="1:3" ht="46.5" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>71</v>
       </c>
@@ -8633,7 +8618,7 @@
       </c>
       <c r="C6" s="21"/>
     </row>
-    <row r="7" ht="58.5" customHeight="1">
+    <row r="7" spans="1:3" ht="58.5" customHeight="1">
       <c r="A7" s="20" t="s">
         <v>73</v>
       </c>
@@ -8642,7 +8627,7 @@
       </c>
       <c r="C7" s="21"/>
     </row>
-    <row r="8" ht="71.25" customHeight="1">
+    <row r="8" spans="1:3" ht="71.25" customHeight="1">
       <c r="A8" s="20" t="s">
         <v>74</v>
       </c>
@@ -8651,7 +8636,7 @@
       </c>
       <c r="C8" s="21"/>
     </row>
-    <row r="9" ht="63.0" customHeight="1">
+    <row r="9" spans="1:3" ht="63" customHeight="1">
       <c r="A9" s="20" t="s">
         <v>76</v>
       </c>
@@ -8660,7 +8645,7 @@
       </c>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" ht="156.75" customHeight="1">
+    <row r="10" spans="1:3" ht="156.75" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>78</v>
       </c>
@@ -8669,7 +8654,7 @@
       </c>
       <c r="C10" s="21"/>
     </row>
-    <row r="11" ht="156.75" customHeight="1">
+    <row r="11" spans="1:3" ht="156.75" customHeight="1">
       <c r="A11" s="20" t="s">
         <v>78</v>
       </c>
@@ -8678,7 +8663,7 @@
       </c>
       <c r="C11" s="21"/>
     </row>
-    <row r="12" ht="162.0" customHeight="1">
+    <row r="12" spans="1:3" ht="162" customHeight="1">
       <c r="A12" s="20" t="s">
         <v>81</v>
       </c>
@@ -8689,7 +8674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" ht="162.0" customHeight="1">
+    <row r="13" spans="1:3" ht="162" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>81</v>
       </c>
@@ -8700,7 +8685,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" ht="162.0" customHeight="1">
+    <row r="14" spans="1:3" ht="162" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>84</v>
       </c>
@@ -8709,7 +8694,7 @@
       </c>
       <c r="C14" s="21"/>
     </row>
-    <row r="15" ht="259.5" customHeight="1">
+    <row r="15" spans="1:3" ht="259.5" customHeight="1">
       <c r="A15" s="20" t="s">
         <v>86</v>
       </c>
@@ -8718,7 +8703,7 @@
       </c>
       <c r="C15" s="21"/>
     </row>
-    <row r="16" ht="259.5" customHeight="1">
+    <row r="16" spans="1:3" ht="259.5" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>86</v>
       </c>
@@ -8727,7 +8712,7 @@
       </c>
       <c r="C16" s="21"/>
     </row>
-    <row r="17" ht="256.5" customHeight="1">
+    <row r="17" spans="1:3" ht="256.5" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>88</v>
       </c>
@@ -8736,16 +8721,16 @@
       </c>
       <c r="C17" s="21"/>
     </row>
-    <row r="18" ht="112.5" customHeight="1">
+    <row r="18" spans="1:3" ht="112.5" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B18" s="22">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="21"/>
     </row>
-    <row r="19" ht="112.5" customHeight="1">
+    <row r="19" spans="1:3" ht="112.5" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>90</v>
       </c>
@@ -8754,7 +8739,7 @@
       </c>
       <c r="C19" s="21"/>
     </row>
-    <row r="20" ht="103.5" customHeight="1">
+    <row r="20" spans="1:3" ht="103.5" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>92</v>
       </c>
@@ -8763,7 +8748,7 @@
       </c>
       <c r="C20" s="21"/>
     </row>
-    <row r="21" ht="138.0" customHeight="1">
+    <row r="21" spans="1:3" ht="138" customHeight="1">
       <c r="A21" s="20" t="s">
         <v>94</v>
       </c>
@@ -8772,7 +8757,7 @@
       </c>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" ht="118.5" customHeight="1">
+    <row r="22" spans="1:3" ht="118.5" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>96</v>
       </c>
@@ -8781,7 +8766,7 @@
       </c>
       <c r="C22" s="21"/>
     </row>
-    <row r="23" ht="127.5" customHeight="1">
+    <row r="23" spans="1:3" ht="127.5" customHeight="1">
       <c r="A23" s="20" t="s">
         <v>98</v>
       </c>
@@ -8790,15 +8775,15 @@
       </c>
       <c r="C23" s="21"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -9768,9 +9753,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/DsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/DsAlgo_TestData.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mousu\git\DsAlgoPortal-TestNG\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41E7D74-0F5D-43C2-9136-53C0CFA5FEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Valid_Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Register" sheetId="3" r:id="rId3"/>
-    <sheet name="Linked_List" sheetId="4" r:id="rId4"/>
-    <sheet name="Graph" sheetId="5" r:id="rId5"/>
-    <sheet name="Tree" sheetId="6" r:id="rId6"/>
-    <sheet name="TryEditor" sheetId="7" r:id="rId7"/>
-    <sheet name="Array" sheetId="8" r:id="rId8"/>
+    <sheet state="visible" name="Valid_Login" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Login" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Register" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Linked_List" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Graph" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Tree" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="TryEditor" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Array" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="QFpUMoeZlmqkAuafmYvz0fl9inTUwU9vdywbm8PrIxY="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
   <si>
     <t>username</t>
   </si>
@@ -41,19 +37,25 @@
     <t>Static123@</t>
   </si>
   <si>
+    <t>message</t>
+  </si>
+  <si>
     <t>TestLab@123</t>
   </si>
   <si>
-    <t>bbddcc</t>
+    <t>adad</t>
   </si>
   <si>
-    <t>TestLab&amp;%^()</t>
+    <t>Invalid Username and Password</t>
+  </si>
+  <si>
+    <t>TestLab^&amp;*($</t>
+  </si>
+  <si>
+    <t>Please fill out this field.</t>
   </si>
   <si>
     <t>confirm password</t>
-  </si>
-  <si>
-    <t>Comments(Expected)</t>
   </si>
   <si>
     <t>Actual</t>
@@ -62,19 +64,25 @@
     <t>Testbuster5643</t>
   </si>
   <si>
-    <t>Valid Username</t>
-  </si>
-  <si>
     <t>Testbuster@098</t>
   </si>
   <si>
     <t>Testbuster^1$(&amp;</t>
   </si>
   <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>Test_987</t>
+  </si>
+  <si>
+    <t>Testbuster0987</t>
+  </si>
+  <si>
     <t>Testbuster@123</t>
   </si>
   <si>
-    <t>Invalid Username error</t>
+    <t>password_mismatch:The two password fields didn’t match.</t>
   </si>
   <si>
     <t>Defect. Shows Password Mismatch error when user enters valid password in both feilds. If no password is entered or passwords is entered then it shows password feild is required but no error is shown that user username is invalid.</t>
@@ -83,32 +91,17 @@
     <t>Testbuster&amp;#*^#^(</t>
   </si>
   <si>
-    <t>Test@123</t>
-  </si>
-  <si>
-    <t>Valid Passwords</t>
-  </si>
-  <si>
-    <t>Error in Username feild which is valid</t>
-  </si>
-  <si>
-    <t>Test_987</t>
-  </si>
-  <si>
-    <t>Testbuster0987</t>
-  </si>
-  <si>
     <t>test098</t>
   </si>
   <si>
-    <t>Less than 8 digit.Error</t>
+    <t>Password cannot be less than 8 digits</t>
   </si>
   <si>
     <t>Defect. Less than 8 digits should not be accepted.
 Error"password_mismatch:The two password fields didn’t match."</t>
   </si>
   <si>
-    <t>Can't be completely numeric. Error</t>
+    <t>Password cannot be numeric</t>
   </si>
   <si>
     <t>Defect. Password feilds are accepting entire numeric data.</t>
@@ -117,22 +110,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Commonly used</t>
+    <t>Password cannot be commmenly used</t>
   </si>
   <si>
     <t>Defect. Password feilds are accpeting commenly used words</t>
   </si>
   <si>
-    <t>One password left blank.Error</t>
-  </si>
-  <si>
-    <t>Error on password feild. Pass</t>
-  </si>
-  <si>
-    <t>Error on confirm password feilds. Pass</t>
-  </si>
-  <si>
-    <t>Successful registration</t>
+    <t>New Account Created. You are logged in as Testbuster@123</t>
   </si>
   <si>
     <t>Python code</t>
@@ -140,18 +124,18 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <b/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t>OutPut Result</t>
     </r>
@@ -260,6 +244,9 @@
 print(my_list</t>
   </si>
   <si>
+    <t>SyntaxError: EOF in multi-line statement on line 4</t>
+  </si>
+  <si>
     <t>fruits = ["apple", "banana", "cherry", "date"]
 fruits.remove("banana")
 print(fruits)</t>
@@ -309,6 +296,28 @@
   </si>
   <si>
     <t>Some Tests failed. Please review code</t>
+  </si>
+  <si>
+    <t>def search(input_list, num): 
+if(num in input_list):
+print("Element Found")
+\b
+\b
+else:
+print("Not Found")
+\b
+\b
+\b
+\b
+search([12, 23, 45, 67, 6, 90] , 25)</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>def search(lst, value):
+  return value in lst
+ print(search([12, 23, 45, 67, 6, 90], 12)) #</t>
   </si>
   <si>
     <t>def search(input_list, num): 
@@ -402,6 +411,17 @@
     <t>SyntaxError: bad input on line 3</t>
   </si>
   <si>
+    <t xml:space="preserve">def sortedSquares(nums):
+\b
+\b
+\b
+\b
+return sorted(x**2 for x in nums)
+nums = [-4, -1, 0, 3, 10]
+result = sortedSquares(nums)
+print(result) </t>
+  </si>
+  <si>
     <t>[0, 1, 9, 16, 100]</t>
   </si>
   <si>
@@ -429,143 +449,102 @@
 result = sortedSquares(nums)
 print(result) # Output: [0, 1, 9, 16, 100]</t>
   </si>
-  <si>
-    <t>Arrays In Python</t>
-  </si>
-  <si>
-    <t>Arrays Using List</t>
-  </si>
-  <si>
-    <t>SyntaxError: EOF in multi-line statement on line 5</t>
-  </si>
-  <si>
-    <t>Basic Operations in Lists</t>
-  </si>
-  <si>
-    <t>Applications of Array</t>
-  </si>
-  <si>
-    <t>Search The Array</t>
-  </si>
-  <si>
-    <t>Max Consecutive Valid</t>
-  </si>
-  <si>
-    <t>Max Consecutive Submit</t>
-  </si>
-  <si>
-    <t>Max Consecutive Invalid</t>
-  </si>
-  <si>
-    <t>Find Num Valid</t>
-  </si>
-  <si>
-    <t>Find Num Submit</t>
-  </si>
-  <si>
-    <t>Find Num Invalid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def sortedSquares(nums): return sorted(x**2 for x in nums)
-nums = [-4, -1, 0, 3, 10]
-result = sortedSquares(nums)
-print(result) </t>
-  </si>
-  <si>
-    <t>Sorted Square Valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorted Square Submit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorted Square Invalid </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="17">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <color rgb="FF467886"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF467886"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="13.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="13.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -574,17 +553,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -598,87 +571,122 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="30">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -868,23 +876,21 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -900,20 +906,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="3" ht="15.75" customHeight="1"/>
+    <row r="4" ht="15.75" customHeight="1"/>
+    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1899,67 +1905,2425 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.0"/>
+    <col customWidth="1" min="2" max="2" width="25.38"/>
+    <col customWidth="1" min="3" max="3" width="35.5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.5"/>
+    <col customWidth="1" min="2" max="2" width="18.5"/>
+    <col customWidth="1" min="3" max="3" width="19.13"/>
+    <col customWidth="1" min="4" max="4" width="46.25"/>
+    <col customWidth="1" min="5" max="5" width="50.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="2">
+        <v>8.767686667E9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="16">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="C13" s="16">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.88"/>
+    <col customWidth="1" min="2" max="2" width="16.38"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" ht="30.75" customHeight="1">
+      <c r="A2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2945,1387 +5309,110 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" customWidth="1"/>
-    <col min="5" max="5" width="50.26953125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="43.25"/>
+    <col customWidth="1" min="2" max="2" width="40.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="2">
-        <v>8767686667</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="23">
+        <v>123434.0</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+        <v>47</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="1"/>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="8">
-        <v>987654321</v>
-      </c>
-      <c r="C11" s="8">
-        <v>987654321</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="F16" s="4"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F18" s="1"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F19" s="4"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F20" s="4"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="6:8" ht="15.75" customHeight="1">
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="23" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="24" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="25" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="26" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="27" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="28" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="29" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="30" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="31" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="32" spans="6:8" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5311,108 +6398,110 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.26953125" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="43.25"/>
+    <col customWidth="1" min="2" max="2" width="40.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>40</v>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="23">
+        <v>123434.0</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="16">
-        <v>123434</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="2" t="s">
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>45</v>
       </c>
+      <c r="B6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>48</v>
       </c>
+      <c r="B7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
-      </c>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -6398,108 +7487,101 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.26953125" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="48.5"/>
+    <col customWidth="1" min="2" max="2" width="41.13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>40</v>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A2" s="15" t="s">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="3" ht="36.0" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="27.0" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="16">
-        <v>123434</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="24">
+        <v>1234567.0</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
-      </c>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -7485,106 +8567,240 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.453125" customWidth="1"/>
-    <col min="2" max="2" width="41.08984375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="70.13"/>
+    <col customWidth="1" min="2" max="2" width="43.88"/>
+    <col customWidth="1" min="3" max="3" width="41.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:2" ht="36" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="26"/>
     </row>
-    <row r="4" spans="1:2" ht="27" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
+    <row r="4" ht="49.5" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>59</v>
-      </c>
+    <row r="5" ht="52.5" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="28"/>
     </row>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
+    <row r="6" ht="46.5" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="28"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>62</v>
-      </c>
+    <row r="7" ht="58.5" customHeight="1">
+      <c r="A7" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="28"/>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A8" s="17">
-        <v>1234567</v>
-      </c>
-      <c r="B8" s="2"/>
+    <row r="8" ht="71.25" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="28"/>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="2"/>
+    <row r="9" ht="63.0" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="28"/>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="10" ht="156.75" customHeight="1">
+      <c r="A10" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" ht="156.75" customHeight="1">
+      <c r="A11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" ht="162.0" customHeight="1">
+      <c r="A12" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" ht="162.0" customHeight="1">
+      <c r="A13" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" ht="162.0" customHeight="1">
+      <c r="A14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" ht="259.5" customHeight="1">
+      <c r="A15" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" ht="259.5" customHeight="1">
+      <c r="A16" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" ht="256.5" customHeight="1">
+      <c r="A17" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" ht="112.5" customHeight="1">
+      <c r="A18" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" ht="112.5" customHeight="1">
+      <c r="A19" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" ht="103.5" customHeight="1">
+      <c r="A20" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" ht="138.0" customHeight="1">
+      <c r="A21" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" ht="118.5" customHeight="1">
+      <c r="A22" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="28"/>
+    </row>
+    <row r="23" ht="127.5" customHeight="1">
+      <c r="A23" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="28"/>
+    </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -8563,1247 +9779,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C1000"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="70.08984375" customWidth="1"/>
-    <col min="2" max="2" width="43.90625" customWidth="1"/>
-    <col min="3" max="3" width="41.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="22"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="49.5" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="52.5" customHeight="1">
-      <c r="A5" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="58.5" customHeight="1">
-      <c r="A7" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="71.25" customHeight="1">
-      <c r="A8" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="63" customHeight="1">
-      <c r="A9" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="156.75" customHeight="1">
-      <c r="A10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="156.75" customHeight="1">
-      <c r="A11" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="162" customHeight="1">
-      <c r="A12" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="162" customHeight="1">
-      <c r="A13" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="162" customHeight="1">
-      <c r="A14" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="259.5" customHeight="1">
-      <c r="A15" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="259.5" customHeight="1">
-      <c r="A16" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="256.5" customHeight="1">
-      <c r="A17" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="112.5" customHeight="1">
-      <c r="A18" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="112.5" customHeight="1">
-      <c r="A19" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="103.5" customHeight="1">
-      <c r="A20" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="138" customHeight="1">
-      <c r="A21" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="118.5" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="20"/>
-    </row>
-    <row r="23" spans="1:3" ht="127.5" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="20"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/DsAlgo_TestData.xlsx
+++ b/src/test/resources/TestData/DsAlgo_TestData.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{142B0D3C-8D3C-48F5-B04F-41E6230A006E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Valid_Login" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Login" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Register" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Linked_List" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Graph" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Tree" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="TryEditor" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Array" sheetId="8" r:id="rId11"/>
+    <sheet name="Valid_Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Register" sheetId="3" r:id="rId3"/>
+    <sheet name="Linked_List" sheetId="4" r:id="rId4"/>
+    <sheet name="Graph" sheetId="5" r:id="rId5"/>
+    <sheet name="Tree" sheetId="6" r:id="rId6"/>
+    <sheet name="TryEditor" sheetId="7" r:id="rId7"/>
+    <sheet name="Array" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H12"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="QFpUMoeZlmqkAuafmYvz0fl9inTUwU9vdywbm8PrIxY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="ZKnjH640j3HCktRdN1XeXAI1F7buvwVYDMG430chrsQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
   <si>
     <t>username</t>
   </si>
@@ -55,10 +60,7 @@
     <t>Please fill out this field.</t>
   </si>
   <si>
-    <t>confirm password</t>
-  </si>
-  <si>
-    <t>Actual</t>
+    <t>confirmpwd</t>
   </si>
   <si>
     <t>Testbuster5643</t>
@@ -82,10 +84,7 @@
     <t>Testbuster@123</t>
   </si>
   <si>
-    <t>password_mismatch:The two password fields didn’t match.</t>
-  </si>
-  <si>
-    <t>Defect. Shows Password Mismatch error when user enters valid password in both feilds. If no password is entered or passwords is entered then it shows password feild is required but no error is shown that user username is invalid.</t>
+    <t>Invalid data in username</t>
   </si>
   <si>
     <t>Testbuster&amp;#*^#^(</t>
@@ -97,23 +96,13 @@
     <t>Password cannot be less than 8 digits</t>
   </si>
   <si>
-    <t>Defect. Less than 8 digits should not be accepted.
-Error"password_mismatch:The two password fields didn’t match."</t>
-  </si>
-  <si>
     <t>Password cannot be numeric</t>
   </si>
   <si>
-    <t>Defect. Password feilds are accepting entire numeric data.</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
     <t>Password cannot be commmenly used</t>
-  </si>
-  <si>
-    <t>Defect. Password feilds are accpeting commenly used words</t>
   </si>
   <si>
     <t>New Account Created. You are logged in as Testbuster@123</t>
@@ -124,18 +113,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>OutPut Result</t>
     </r>
@@ -453,98 +442,93 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF467886"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF467886"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="13.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -553,11 +537,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -571,122 +561,74 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -876,21 +818,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -906,20 +850,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1905,30 +1849,28 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.0"/>
-    <col customWidth="1" min="2" max="2" width="25.38"/>
-    <col customWidth="1" min="3" max="3" width="35.5"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1939,7 +1881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1950,7 +1892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1961,16 +1903,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1979,17 +1921,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2974,1356 +2916,310 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.5"/>
-    <col customWidth="1" min="2" max="2" width="18.5"/>
-    <col customWidth="1" min="3" max="3" width="19.13"/>
-    <col customWidth="1" min="4" max="4" width="46.25"/>
-    <col customWidth="1" min="5" max="5" width="50.25"/>
+    <col min="4" max="4" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="9">
+        <v>8767686667</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2">
-        <v>8.767686667E9</v>
-      </c>
-      <c r="D3" s="10" t="s">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="12">
+        <v>987654321</v>
+      </c>
+      <c r="C13" s="12">
+        <v>987654321</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="16">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="C13" s="16">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.88"/>
-    <col customWidth="1" min="2" max="2" width="16.38"/>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
-    <row r="2" ht="30.75" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
-    <row r="3" ht="24.75" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+    <row r="3" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5309,110 +4205,108 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.25"/>
-    <col customWidth="1" min="2" max="2" width="40.0"/>
+    <col min="1" max="1" width="43.26953125" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>36</v>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>37</v>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="12">
+        <v>123434</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="B6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="23">
-        <v>123434.0</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -6398,110 +5292,108 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.25"/>
-    <col customWidth="1" min="2" max="2" width="40.0"/>
+    <col min="1" max="1" width="43.26953125" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>36</v>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>37</v>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="12">
+        <v>123434</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="B6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="23">
-        <v>123434.0</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -7487,101 +6379,99 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="48.5"/>
-    <col customWidth="1" min="2" max="2" width="41.13"/>
+    <col min="1" max="1" width="48.453125" customWidth="1"/>
+    <col min="2" max="2" width="41.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>36</v>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="3" ht="36.0" customHeight="1">
+    <row r="3" spans="1:2" ht="36" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="4" ht="27.0" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="24">
-        <v>1234567.0</v>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="20">
+        <v>1234567</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="24"/>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="20"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -8567,249 +7457,247 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="70.13"/>
-    <col customWidth="1" min="2" max="2" width="43.88"/>
-    <col customWidth="1" min="3" max="3" width="41.75"/>
+    <col min="1" max="1" width="70.08984375" customWidth="1"/>
+    <col min="2" max="2" width="43.90625" customWidth="1"/>
+    <col min="3" max="3" width="41.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="1:3" ht="49.5" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:3" ht="52.5" customHeight="1">
+      <c r="A5" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="B5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="24"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+    <row r="6" spans="1:3" ht="46.5" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:3" ht="58.5" customHeight="1">
+      <c r="A7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="26"/>
+      <c r="C7" s="24"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="26"/>
+    <row r="8" spans="1:3" ht="71.25" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="24"/>
     </row>
-    <row r="4" ht="49.5" customHeight="1">
-      <c r="A4" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="28"/>
+    <row r="9" spans="1:3" ht="63" customHeight="1">
+      <c r="A9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="24"/>
     </row>
-    <row r="5" ht="52.5" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="28"/>
+    <row r="10" spans="1:3" ht="156.75" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="24"/>
     </row>
-    <row r="6" ht="46.5" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="28"/>
+    <row r="11" spans="1:3" ht="156.75" customHeight="1">
+      <c r="A11" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="24"/>
     </row>
-    <row r="7" ht="58.5" customHeight="1">
-      <c r="A7" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="28"/>
+    <row r="12" spans="1:3" ht="162" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="8" ht="71.25" customHeight="1">
-      <c r="A8" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="25" t="s">
+    <row r="13" spans="1:3" ht="162" customHeight="1">
+      <c r="A13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C13" s="24" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="9" ht="63.0" customHeight="1">
-      <c r="A9" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="28"/>
+    <row r="14" spans="1:3" ht="162" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="24"/>
     </row>
-    <row r="10" ht="156.75" customHeight="1">
-      <c r="A10" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="28"/>
+    <row r="15" spans="1:3" ht="259.5" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="24"/>
     </row>
-    <row r="11" ht="156.75" customHeight="1">
-      <c r="A11" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="28"/>
+    <row r="16" spans="1:3" ht="259.5" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="24"/>
     </row>
-    <row r="12" ht="162.0" customHeight="1">
-      <c r="A12" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="28" t="s">
+    <row r="17" spans="1:3" ht="256.5" customHeight="1">
+      <c r="A17" s="23" t="s">
         <v>79</v>
       </c>
+      <c r="B17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="24"/>
     </row>
-    <row r="13" ht="162.0" customHeight="1">
-      <c r="A13" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>79</v>
-      </c>
+    <row r="18" spans="1:3" ht="112.5" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="25">
+        <v>2</v>
+      </c>
+      <c r="C18" s="24"/>
     </row>
-    <row r="14" ht="162.0" customHeight="1">
-      <c r="A14" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="25" t="s">
+    <row r="19" spans="1:3" ht="112.5" customHeight="1">
+      <c r="A19" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="B19" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="24"/>
     </row>
-    <row r="15" ht="259.5" customHeight="1">
-      <c r="A15" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="29" t="s">
+    <row r="20" spans="1:3" ht="103.5" customHeight="1">
+      <c r="A20" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="B20" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="24"/>
     </row>
-    <row r="16" ht="259.5" customHeight="1">
-      <c r="A16" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="28"/>
+    <row r="21" spans="1:3" ht="138" customHeight="1">
+      <c r="A21" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="24"/>
     </row>
-    <row r="17" ht="256.5" customHeight="1">
-      <c r="A17" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="28"/>
+    <row r="22" spans="1:3" ht="118.5" customHeight="1">
+      <c r="A22" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="24"/>
     </row>
-    <row r="18" ht="112.5" customHeight="1">
-      <c r="A18" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="C18" s="28"/>
+    <row r="23" spans="1:3" ht="127.5" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="24"/>
     </row>
-    <row r="19" ht="112.5" customHeight="1">
-      <c r="A19" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="28"/>
-    </row>
-    <row r="20" ht="103.5" customHeight="1">
-      <c r="A20" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="28"/>
-    </row>
-    <row r="21" ht="138.0" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="28"/>
-    </row>
-    <row r="22" ht="118.5" customHeight="1">
-      <c r="A22" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="28"/>
-    </row>
-    <row r="23" ht="127.5" customHeight="1">
-      <c r="A23" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="28"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -9779,9 +8667,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>